--- a/Extra Credit/Global Baseline Estimate/MovieRatings.xlsx
+++ b/Extra Credit/Global Baseline Estimate/MovieRatings.xlsx
@@ -1,43 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50c122d173c4c392/_Katz/Courses/_RecSys/algorithms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jawaidhakim/Downloads/CUNY/DATA607/Extra Credit/Global Baseline Estimate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF19718D-0D02-4663-A62D-3C80E9C8209B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AA214F-DC3D-8446-8015-5ABCCC67E581}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MovieRatings" sheetId="1" r:id="rId1"/>
     <sheet name="Problem Statement" sheetId="13" r:id="rId2"/>
     <sheet name="MeanCenteredMovieRatings" sheetId="3" r:id="rId3"/>
     <sheet name="Global Baseline" sheetId="12" r:id="rId4"/>
+    <sheet name="MyMovieRatings" sheetId="16" r:id="rId5"/>
+    <sheet name="My Global Baseline" sheetId="15" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="5" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="61">
   <si>
     <t>Critic</t>
   </si>
@@ -149,14 +141,93 @@
   <si>
     <t>Star Wars Force</t>
   </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Monish</t>
+  </si>
+  <si>
+    <t>TOPGUN:MAVERICK</t>
+  </si>
+  <si>
+    <t>ELVIS</t>
+  </si>
+  <si>
+    <t>EVERYTHING_EVERYWHRE_ALL_AT_ONCE</t>
+  </si>
+  <si>
+    <t>THE_POWER_OF_THE_DOG</t>
+  </si>
+  <si>
+    <t>DON’T_LOOK_TP</t>
+  </si>
+  <si>
+    <t>THE_LOST_DAUGHTER</t>
+  </si>
+  <si>
+    <t>HOUSE_OF_GUCCI</t>
+  </si>
+  <si>
+    <t>THE_INVENTOR_OUT_FOR_BLOOD</t>
+  </si>
+  <si>
+    <t>CODA</t>
+  </si>
+  <si>
+    <t>BOHEMIAN_RHAPSODY</t>
+  </si>
+  <si>
+    <t>CRAZY_RICH_ASIANS</t>
+  </si>
+  <si>
+    <t>OCEANS_8</t>
+  </si>
+  <si>
+    <t>A_STAR_IS_BORN</t>
+  </si>
+  <si>
+    <t>A_QUIET_PLACE</t>
+  </si>
+  <si>
+    <t>DON’T_LOOK_UP</t>
+  </si>
+  <si>
+    <t>Global Baseline Estimate = Mean Movie Rating + CODA's rating relative to average + Monish's rating relative to average</t>
+  </si>
+  <si>
+    <t>=3.88 -0.68 - 0.43</t>
+  </si>
+  <si>
+    <t>&lt;-Params Rating for PitchPerfect2</t>
+  </si>
+  <si>
+    <t>Igor's predicted rating for HOUSE_OF_GUCCI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -311,8 +382,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,6 +593,12 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -644,69 +727,69 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -715,59 +798,76 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="21" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -813,7 +913,627 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="80">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1739,8 +2459,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="47"/>
-      <tableStyleElement type="headerRow" dxfId="46"/>
+      <tableStyleElement type="wholeTable" dxfId="79"/>
+      <tableStyleElement type="headerRow" dxfId="78"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1755,31 +2475,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G17" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G17" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Critic" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CaptainAmerica" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Deadpool" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Frozen" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="JungleBook" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PitchPerfect2" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="StarWarsForce" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Critic" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CaptainAmerica" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Deadpool" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Frozen" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="JungleBook" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PitchPerfect2" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="StarWarsForce" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table14" displayName="Table14" ref="A1:H4" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table14" displayName="Table14" ref="A1:H4" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Critic" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Captain America" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Deadpool" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Frozen" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Jungle Book" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Pitch Perfect 2" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Star Wars Force" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Mean" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Critic" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Captain America" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Deadpool" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Frozen" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Jungle Book" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Pitch Perfect 2" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Star Wars Force" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Mean" dataDxfId="59">
       <calculatedColumnFormula>AVERAGE(Table14[[#This Row],[Captain America]:[Star Wars Force]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1788,25 +2508,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A6:G9" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A6:G9" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Critic" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Captain America" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Critic" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Captain America" dataDxfId="53">
       <calculatedColumnFormula>IF(ISBLANK(B2),"",B2-$H2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Deadpool" dataDxfId="20">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Deadpool" dataDxfId="52">
       <calculatedColumnFormula>IF(ISBLANK(C2),"",C2-$H2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Frozen" dataDxfId="19">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Frozen" dataDxfId="51">
       <calculatedColumnFormula>IF(ISBLANK(D2),"",D2-$H2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Jungle Book" dataDxfId="18">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Jungle Book" dataDxfId="50">
       <calculatedColumnFormula>IF(ISBLANK(E2),"",E2-$H2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Pitch Perfect 2" dataDxfId="17">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Pitch Perfect 2" dataDxfId="49">
       <calculatedColumnFormula>IF(ISBLANK(F2),"",F2-$H2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Star Wars Force" dataDxfId="16">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Star Wars Force" dataDxfId="48">
       <calculatedColumnFormula>IF(ISBLANK(G2),"",G2-$H2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1815,26 +2535,77 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table122" displayName="Table122" ref="A1:G18" totalsRowCount="1" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table122" displayName="Table122" ref="A1:G18" totalsRowCount="1" headerRowDxfId="47" dataDxfId="46">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Critic" totalsRowLabel="movie avg" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="CaptainAmerica" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Critic" totalsRowLabel="movie avg" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="CaptainAmerica" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42">
       <totalsRowFormula>SUM(B2:B17)/COUNTIF(B2:B17,"&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Deadpool" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Deadpool" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
       <totalsRowFormula>SUM(C2:C17)/COUNTIF(C2:C17,"&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Frozen" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Frozen" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
       <totalsRowFormula>SUM(D2:D17)/COUNTIF(D2:D17,"&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="JungleBook" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="JungleBook" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
       <totalsRowFormula>SUM(E2:E17)/COUNTIF(E2:E17,"&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="PitchPerfect2" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="PitchPerfect2" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
       <totalsRowFormula>SUM(F2:F17)/COUNTIF(F2:F17,"&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="StarWarsForce" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="StarWarsForce" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
       <totalsRowFormula>SUM(G2:G17)/COUNTIF(G2:G17,"&gt;0")</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B02A868B-E5DC-944D-A3F3-6EAC046CBB58}" name="Table1223" displayName="Table1223" ref="A1:O7" totalsRowCount="1" headerRowDxfId="31" dataDxfId="30">
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{707E797D-D809-0148-84C5-102D2BB88A7B}" name="Critic" totalsRowLabel="movie avg" dataDxfId="29" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{1423BEDE-B2C0-2147-8E68-8F972CF66982}" name="TOPGUN:MAVERICK" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="13">
+      <totalsRowFormula>SUM(B2:B6)/COUNTIF(B2:B6,"&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{188EB1EA-837D-FC40-BA6A-A2B8A1F541EA}" name="ELVIS" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="12">
+      <totalsRowFormula>SUM(C2:C6)/COUNTIF(C2:C6,"&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{6076D7E1-D19F-C849-858B-8DC4824244BF}" name="EVERYTHING_EVERYWHRE_ALL_AT_ONCE" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="11">
+      <totalsRowFormula>SUM(D2:D6)/COUNTIF(D2:D6,"&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{948EDA0F-EBFD-7846-ADA0-7497D2BA6F8B}" name="THE_POWER_OF_THE_DOG" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="10">
+      <totalsRowFormula>SUM(E2:E6)/COUNTIF(E2:E6,"&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{F88DCF51-395B-A649-AB9C-F8CD52DC02D2}" name="DON’T_LOOK_UP" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="9">
+      <totalsRowFormula>SUM(F2:F6)/COUNTIF(F2:F6,"&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{F019224D-1E32-E84E-B2F5-43D423DAA9A2}" name="THE_LOST_DAUGHTER" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="8">
+      <totalsRowFormula>SUM(G2:G6)/COUNTIF(G2:G6,"&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{289B64C0-F060-BA44-8219-6A1007685E7A}" name="HOUSE_OF_GUCCI" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="7">
+      <totalsRowFormula>SUM(H2:H6)/COUNTIF(H2:H6,"&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{BD60F8C5-DE43-584F-B879-AF793D5920DE}" name="THE_INVENTOR_OUT_FOR_BLOOD" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="6">
+      <totalsRowFormula>SUM(I2:I6)/COUNTIF(I2:I6,"&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{0697BC1C-AA8B-2346-9B66-566D5468429D}" name="CODA" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="5">
+      <totalsRowFormula>SUM(J2:J6)/COUNTIF(J2:J6,"&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{45599696-A6E7-D54A-AB15-A2BB79DC1E80}" name="BOHEMIAN_RHAPSODY" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="4">
+      <totalsRowFormula>SUM(K2:K6)/COUNTIF(K2:K6,"&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{54B13F5F-2A0F-334D-A10C-4349A8678498}" name="CRAZY_RICH_ASIANS" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="3">
+      <totalsRowFormula>SUM(L2:L6)/COUNTIF(L2:L6,"&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{3A57B2F4-D797-2645-98F2-DF7C5EBF274B}" name="OCEANS_8" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="2">
+      <totalsRowFormula>SUM(M2:M6)/COUNTIF(M2:M6,"&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{4C860037-369F-0242-B6EC-D2F1FC5950EB}" name="A_STAR_IS_BORN" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="1">
+      <totalsRowFormula>SUM(N2:N6)/COUNTIF(N2:N6,"&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{E2C13F90-631D-AA4E-8C45-88F072AC82A0}" name="A_QUIET_PLACE" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="0">
+      <totalsRowFormula>SUM(O2:O6)/COUNTIF(O2:O6,"&gt;0")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2145,15 +2916,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.46484375" style="5" customWidth="1"/>
-    <col min="3" max="6" width="15.59765625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="5" customWidth="1"/>
+    <col min="3" max="6" width="15.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2176,7 +2947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2187,7 +2958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2210,7 +2981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2221,7 +2992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2235,7 +3006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2252,7 +3023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -2269,7 +3040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2292,7 +3063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -2300,7 +3071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -2317,7 +3088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -2340,7 +3111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -2360,7 +3131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -2374,7 +3145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2397,7 +3168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2408,7 +3179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2428,7 +3199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -2439,7 +3210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -2448,7 +3219,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -2457,7 +3228,7 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -2466,7 +3237,7 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -2475,7 +3246,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -2484,7 +3255,7 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -2493,7 +3264,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -2502,7 +3273,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -2511,7 +3282,7 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -2520,7 +3291,7 @@
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -2529,7 +3300,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -2538,7 +3309,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -2547,7 +3318,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -2556,7 +3327,7 @@
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -2565,7 +3336,7 @@
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -2574,187 +3345,187 @@
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="40" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="42" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="43" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="44" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="47" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="48" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="49" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="52" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="55" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="56" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="57" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="60" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="61" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="62" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="63" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="64" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="65" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="66" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="67" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="72" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="75" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="76" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="77" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="78" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="79" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="80" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="81" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="82" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="83" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="84" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="85" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="86" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="87" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="88" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="89" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="90" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="91" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="92" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="93" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="94" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="95" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="96" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="97" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="98" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="99" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="100" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="101" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="102" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="103" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="104" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="105" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="106" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="107" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="108" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="109" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="110" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="111" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="112" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="113" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="114" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="115" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="116" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="117" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="118" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="119" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="120" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="123" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="124" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="126" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="127" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="128" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="129" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="130" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="131" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="132" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="133" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="134" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="135" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="136" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="137" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="138" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="139" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="140" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="141" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="143" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="144" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="145" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="146" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="147" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="148" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="149" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="150" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="151" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="152" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="153" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="154" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="155" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="156" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="157" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="158" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="159" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="160" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="161" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="162" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="163" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="164" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="165" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="166" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="167" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="168" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="169" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="170" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="171" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="172" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="173" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="174" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="175" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="176" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="177" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="178" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="179" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="180" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="181" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="182" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="183" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="184" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="185" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="186" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="187" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="188" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="189" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="190" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="191" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="192" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="193" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="194" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="195" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="196" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="197" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="198" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="199" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="200" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="201" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="202" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="203" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="204" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="205" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="206" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="207" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="208" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="209" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="210" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="211" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="212" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
-    <row r="213" customFormat="1" ht="14.25" x14ac:dyDescent="0.45"/>
+    <row r="33" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="34" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="35" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="36" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="37" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="38" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="39" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="40" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="41" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="42" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="43" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="44" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="45" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="46" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="47" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="48" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="49" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="50" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="51" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="52" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="53" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="54" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="56" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="57" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="58" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="59" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="60" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="61" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="62" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="63" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="64" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="65" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="66" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="67" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="68" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="69" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="70" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="71" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="72" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="73" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="74" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="75" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="76" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="77" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="78" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="79" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="80" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="81" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="82" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="83" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="84" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="85" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="86" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="87" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="88" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="89" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="90" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="91" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="92" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="93" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="94" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="95" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="96" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="97" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="98" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="99" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="100" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="101" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="102" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="103" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="104" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="105" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="106" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="107" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="108" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="109" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="110" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="111" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="112" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="113" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="114" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="115" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="116" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="117" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="118" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="119" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="120" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="121" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="122" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="123" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="124" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="125" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="126" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="127" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="128" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="129" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="130" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="131" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="132" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="133" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="134" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="135" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="136" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="137" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="138" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="139" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="140" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="141" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="142" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="143" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="144" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="145" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="146" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="147" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="148" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="149" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="150" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="151" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="152" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="153" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="154" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="155" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="156" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="157" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="158" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="159" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="160" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="161" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="162" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="163" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="164" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="165" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="166" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="167" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="168" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="169" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="170" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="171" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="172" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="173" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="174" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="175" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="176" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="177" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="178" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="179" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="180" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="181" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="182" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="183" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="184" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="185" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="186" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="187" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="188" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="189" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="190" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="191" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="192" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="193" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="194" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="195" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="196" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="197" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="198" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="199" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="200" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="201" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="202" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="203" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="204" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="205" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="206" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="207" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="208" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="209" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="210" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="211" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="212" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="213" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2772,9 +3543,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -2789,7 +3560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2812,7 +3583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -2827,7 +3598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2844,7 +3615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -2863,7 +3634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2882,7 +3653,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -2905,7 +3676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2918,7 +3689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -2939,7 +3710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -2962,7 +3733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
@@ -2983,7 +3754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -3000,7 +3771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
@@ -3023,7 +3794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -3038,7 +3809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
@@ -3059,7 +3830,7 @@
       </c>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -3090,14 +3861,14 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" style="1" customWidth="1"/>
-    <col min="2" max="7" width="10.59765625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="7" width="10.6640625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" s="24" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3123,7 +3894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3138,7 +3909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -3165,7 +3936,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -3186,7 +3957,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" s="26" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>0</v>
       </c>
@@ -3210,7 +3981,7 @@
       </c>
       <c r="H6" s="29"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -3240,7 +4011,7 @@
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>8</v>
       </c>
@@ -3270,7 +4041,7 @@
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -3315,22 +4086,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I213"/>
+  <dimension ref="A1:I211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView zoomScale="96" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.46484375" style="14" customWidth="1"/>
-    <col min="3" max="6" width="15.59765625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="16.265625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="8.73046875" style="12"/>
+    <col min="1" max="1" width="26.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="14" customWidth="1"/>
+    <col min="3" max="6" width="15.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3359,7 +4130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3378,7 +4149,7 @@
         <v>6.5573770491803351E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -3409,7 +4180,7 @@
         <v>-0.43442622950819665</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3428,7 +4199,7 @@
         <v>1.0655737704918034</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3450,7 +4221,7 @@
         <v>0.73224043715847031</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3475,7 +4246,7 @@
         <v>-0.68442622950819665</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -3500,7 +4271,7 @@
         <v>-0.43442622950819665</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -3531,7 +4302,7 @@
         <v>-0.60109289617486317</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3547,7 +4318,7 @@
         <v>6.5573770491803351E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -3575,7 +4346,7 @@
         <v>-0.43442622950819665</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -3606,7 +4377,7 @@
         <v>-0.26775956284153013</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -3634,7 +4405,7 @@
         <v>0.86557377049180317</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -3656,7 +4427,7 @@
         <v>6.5573770491803351E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -3687,7 +4458,7 @@
         <v>0.73224043715847031</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -3706,7 +4477,7 @@
         <v>6.5573770491803351E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -3734,7 +4505,7 @@
         <v>-0.33442622950819656</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -3753,7 +4524,7 @@
         <v>1.0655737704918034</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -3786,7 +4557,7 @@
         <v>3.9344262295081966</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
@@ -3815,7 +4586,7 @@
         <v>0.21941992433795754</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -3824,7 +4595,7 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>24</v>
       </c>
@@ -3835,7 +4606,7 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -3844,7 +4615,7 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
@@ -3855,7 +4626,7 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -3864,7 +4635,7 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>26</v>
       </c>
@@ -3875,30 +4646,30 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="19">
-        <f>H18+F19+I10</f>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="36">
+        <f>SUM(H18,F19,I10)</f>
         <v>2.2798594847775178</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A27"/>
-      <c r="B27" s="12"/>
+      <c r="B27" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -3907,7 +4678,7 @@
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -3916,7 +4687,7 @@
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -3925,7 +4696,7 @@
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -3934,7 +4705,7 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -3943,7 +4714,7 @@
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -3952,7 +4723,7 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -3961,7 +4732,7 @@
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -3970,7 +4741,7 @@
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -3979,7 +4750,7 @@
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3988,7 +4759,7 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -3997,7 +4768,7 @@
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -4006,7 +4777,7 @@
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -4015,7 +4786,7 @@
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -4024,7 +4795,7 @@
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -4033,7 +4804,7 @@
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -4042,7 +4813,7 @@
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -4051,7 +4822,7 @@
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -4060,7 +4831,7 @@
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -4069,7 +4840,7 @@
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -4078,7 +4849,7 @@
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -4087,7 +4858,7 @@
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -4096,7 +4867,7 @@
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -4105,7 +4876,7 @@
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -4114,7 +4885,7 @@
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -4123,7 +4894,7 @@
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -4132,7 +4903,7 @@
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A54"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -4141,7 +4912,7 @@
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -4150,7 +4921,7 @@
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -4159,7 +4930,7 @@
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -4168,7 +4939,7 @@
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -4177,7 +4948,7 @@
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -4186,7 +4957,7 @@
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -4195,7 +4966,7 @@
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
     </row>
-    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -4204,7 +4975,7 @@
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -4213,7 +4984,7 @@
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -4222,7 +4993,7 @@
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -4231,7 +5002,7 @@
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
     </row>
-    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -4240,7 +5011,7 @@
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
     </row>
-    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -4249,7 +5020,7 @@
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
-    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -4258,7 +5029,7 @@
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -4267,7 +5038,7 @@
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -4276,7 +5047,7 @@
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
     </row>
-    <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -4285,7 +5056,7 @@
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
     </row>
-    <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -4294,7 +5065,7 @@
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
     </row>
-    <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -4303,7 +5074,7 @@
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
     </row>
-    <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -4312,7 +5083,7 @@
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
     </row>
-    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -4321,7 +5092,7 @@
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
     </row>
-    <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -4330,7 +5101,7 @@
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
     </row>
-    <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -4339,7 +5110,7 @@
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
     </row>
-    <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -4348,7 +5119,7 @@
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
     </row>
-    <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -4357,7 +5128,7 @@
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
     </row>
-    <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -4366,7 +5137,7 @@
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -4375,7 +5146,7 @@
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
     </row>
-    <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -4384,7 +5155,7 @@
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -4393,7 +5164,7 @@
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
     </row>
-    <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -4402,7 +5173,7 @@
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -4411,7 +5182,7 @@
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
     </row>
-    <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -4420,7 +5191,7 @@
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
     </row>
-    <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -4429,7 +5200,7 @@
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
     </row>
-    <row r="87" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -4438,7 +5209,7 @@
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
     </row>
-    <row r="88" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -4447,7 +5218,7 @@
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
     </row>
-    <row r="89" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -4456,7 +5227,7 @@
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
     </row>
-    <row r="90" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -4465,7 +5236,7 @@
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -4474,7 +5245,7 @@
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
     </row>
-    <row r="92" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -4483,7 +5254,7 @@
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
     </row>
-    <row r="93" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -4492,7 +5263,7 @@
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
     </row>
-    <row r="94" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -4501,7 +5272,7 @@
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
     </row>
-    <row r="95" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -4510,7 +5281,7 @@
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
     </row>
-    <row r="96" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -4519,7 +5290,7 @@
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
     </row>
-    <row r="97" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -4528,7 +5299,7 @@
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
     </row>
-    <row r="98" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -4537,7 +5308,7 @@
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
     </row>
-    <row r="99" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -4546,7 +5317,7 @@
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
     </row>
-    <row r="100" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -4555,7 +5326,7 @@
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
     </row>
-    <row r="101" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -4564,7 +5335,7 @@
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
     </row>
-    <row r="102" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -4573,7 +5344,7 @@
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
     </row>
-    <row r="103" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -4582,7 +5353,7 @@
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
     </row>
-    <row r="104" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -4591,7 +5362,7 @@
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
     </row>
-    <row r="105" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -4600,7 +5371,7 @@
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
     </row>
-    <row r="106" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -4609,7 +5380,7 @@
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
     </row>
-    <row r="107" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -4618,7 +5389,7 @@
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
     </row>
-    <row r="108" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -4627,7 +5398,7 @@
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
     </row>
-    <row r="109" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A109"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -4636,7 +5407,7 @@
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
     </row>
-    <row r="110" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -4645,7 +5416,7 @@
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
     </row>
-    <row r="111" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A111"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -4654,7 +5425,7 @@
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
     </row>
-    <row r="112" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -4663,7 +5434,7 @@
       <c r="F112" s="12"/>
       <c r="G112" s="12"/>
     </row>
-    <row r="113" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -4672,7 +5443,7 @@
       <c r="F113" s="12"/>
       <c r="G113" s="12"/>
     </row>
-    <row r="114" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -4681,7 +5452,7 @@
       <c r="F114" s="12"/>
       <c r="G114" s="12"/>
     </row>
-    <row r="115" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -4690,7 +5461,7 @@
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
     </row>
-    <row r="116" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -4699,7 +5470,7 @@
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
     </row>
-    <row r="117" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -4708,7 +5479,7 @@
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
     </row>
-    <row r="118" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -4717,7 +5488,7 @@
       <c r="F118" s="12"/>
       <c r="G118" s="12"/>
     </row>
-    <row r="119" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -4726,7 +5497,7 @@
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
     </row>
-    <row r="120" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -4735,7 +5506,7 @@
       <c r="F120" s="12"/>
       <c r="G120" s="12"/>
     </row>
-    <row r="121" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -4744,7 +5515,7 @@
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
     </row>
-    <row r="122" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -4753,7 +5524,7 @@
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
     </row>
-    <row r="123" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -4762,7 +5533,7 @@
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
     </row>
-    <row r="124" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -4771,7 +5542,7 @@
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
     </row>
-    <row r="125" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -4780,7 +5551,7 @@
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
     </row>
-    <row r="126" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -4789,7 +5560,7 @@
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
     </row>
-    <row r="127" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -4798,7 +5569,7 @@
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
     </row>
-    <row r="128" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -4807,7 +5578,7 @@
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
     </row>
-    <row r="129" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A129"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -4816,7 +5587,7 @@
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
     </row>
-    <row r="130" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -4825,7 +5596,7 @@
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
     </row>
-    <row r="131" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A131"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -4834,7 +5605,7 @@
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
     </row>
-    <row r="132" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -4843,7 +5614,7 @@
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
     </row>
-    <row r="133" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A133"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -4852,7 +5623,7 @@
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
     </row>
-    <row r="134" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -4861,7 +5632,7 @@
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
     </row>
-    <row r="135" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A135"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -4870,7 +5641,7 @@
       <c r="F135" s="12"/>
       <c r="G135" s="12"/>
     </row>
-    <row r="136" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -4879,7 +5650,7 @@
       <c r="F136" s="12"/>
       <c r="G136" s="12"/>
     </row>
-    <row r="137" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A137"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
@@ -4888,7 +5659,7 @@
       <c r="F137" s="12"/>
       <c r="G137" s="12"/>
     </row>
-    <row r="138" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -4897,7 +5668,7 @@
       <c r="F138" s="12"/>
       <c r="G138" s="12"/>
     </row>
-    <row r="139" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A139"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -4906,7 +5677,7 @@
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
     </row>
-    <row r="140" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -4915,7 +5686,7 @@
       <c r="F140" s="12"/>
       <c r="G140" s="12"/>
     </row>
-    <row r="141" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -4924,7 +5695,7 @@
       <c r="F141" s="12"/>
       <c r="G141" s="12"/>
     </row>
-    <row r="142" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -4933,7 +5704,7 @@
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
     </row>
-    <row r="143" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A143"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -4942,7 +5713,7 @@
       <c r="F143" s="12"/>
       <c r="G143" s="12"/>
     </row>
-    <row r="144" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -4951,7 +5722,7 @@
       <c r="F144" s="12"/>
       <c r="G144" s="12"/>
     </row>
-    <row r="145" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A145"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -4960,7 +5731,7 @@
       <c r="F145" s="12"/>
       <c r="G145" s="12"/>
     </row>
-    <row r="146" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -4969,7 +5740,7 @@
       <c r="F146" s="12"/>
       <c r="G146" s="12"/>
     </row>
-    <row r="147" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -4978,7 +5749,7 @@
       <c r="F147" s="12"/>
       <c r="G147" s="12"/>
     </row>
-    <row r="148" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -4987,7 +5758,7 @@
       <c r="F148" s="12"/>
       <c r="G148" s="12"/>
     </row>
-    <row r="149" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A149"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
@@ -4996,7 +5767,7 @@
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
     </row>
-    <row r="150" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
@@ -5005,7 +5776,7 @@
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
     </row>
-    <row r="151" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A151"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
@@ -5014,7 +5785,7 @@
       <c r="F151" s="12"/>
       <c r="G151" s="12"/>
     </row>
-    <row r="152" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -5023,7 +5794,7 @@
       <c r="F152" s="12"/>
       <c r="G152" s="12"/>
     </row>
-    <row r="153" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A153"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -5032,7 +5803,7 @@
       <c r="F153" s="12"/>
       <c r="G153" s="12"/>
     </row>
-    <row r="154" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -5041,7 +5812,7 @@
       <c r="F154" s="12"/>
       <c r="G154" s="12"/>
     </row>
-    <row r="155" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A155"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
@@ -5050,7 +5821,7 @@
       <c r="F155" s="12"/>
       <c r="G155" s="12"/>
     </row>
-    <row r="156" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
@@ -5059,7 +5830,7 @@
       <c r="F156" s="12"/>
       <c r="G156" s="12"/>
     </row>
-    <row r="157" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A157"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -5068,7 +5839,7 @@
       <c r="F157" s="12"/>
       <c r="G157" s="12"/>
     </row>
-    <row r="158" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -5077,7 +5848,7 @@
       <c r="F158" s="12"/>
       <c r="G158" s="12"/>
     </row>
-    <row r="159" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A159"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
@@ -5086,7 +5857,7 @@
       <c r="F159" s="12"/>
       <c r="G159" s="12"/>
     </row>
-    <row r="160" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -5095,7 +5866,7 @@
       <c r="F160" s="12"/>
       <c r="G160" s="12"/>
     </row>
-    <row r="161" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A161"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -5104,7 +5875,7 @@
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
     </row>
-    <row r="162" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -5113,7 +5884,7 @@
       <c r="F162" s="12"/>
       <c r="G162" s="12"/>
     </row>
-    <row r="163" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A163"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -5122,7 +5893,7 @@
       <c r="F163" s="12"/>
       <c r="G163" s="12"/>
     </row>
-    <row r="164" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -5131,7 +5902,7 @@
       <c r="F164" s="12"/>
       <c r="G164" s="12"/>
     </row>
-    <row r="165" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A165"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -5140,7 +5911,7 @@
       <c r="F165" s="12"/>
       <c r="G165" s="12"/>
     </row>
-    <row r="166" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -5149,7 +5920,7 @@
       <c r="F166" s="12"/>
       <c r="G166" s="12"/>
     </row>
-    <row r="167" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A167"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
@@ -5158,7 +5929,7 @@
       <c r="F167" s="12"/>
       <c r="G167" s="12"/>
     </row>
-    <row r="168" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -5167,7 +5938,7 @@
       <c r="F168" s="12"/>
       <c r="G168" s="12"/>
     </row>
-    <row r="169" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A169"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -5176,7 +5947,7 @@
       <c r="F169" s="12"/>
       <c r="G169" s="12"/>
     </row>
-    <row r="170" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -5185,7 +5956,7 @@
       <c r="F170" s="12"/>
       <c r="G170" s="12"/>
     </row>
-    <row r="171" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A171"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -5194,7 +5965,7 @@
       <c r="F171" s="12"/>
       <c r="G171" s="12"/>
     </row>
-    <row r="172" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -5203,7 +5974,7 @@
       <c r="F172" s="12"/>
       <c r="G172" s="12"/>
     </row>
-    <row r="173" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A173"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -5212,7 +5983,7 @@
       <c r="F173" s="12"/>
       <c r="G173" s="12"/>
     </row>
-    <row r="174" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -5221,7 +5992,7 @@
       <c r="F174" s="12"/>
       <c r="G174" s="12"/>
     </row>
-    <row r="175" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A175"/>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
@@ -5230,7 +6001,7 @@
       <c r="F175" s="12"/>
       <c r="G175" s="12"/>
     </row>
-    <row r="176" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
@@ -5239,7 +6010,7 @@
       <c r="F176" s="12"/>
       <c r="G176" s="12"/>
     </row>
-    <row r="177" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A177"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -5248,7 +6019,7 @@
       <c r="F177" s="12"/>
       <c r="G177" s="12"/>
     </row>
-    <row r="178" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
@@ -5257,7 +6028,7 @@
       <c r="F178" s="12"/>
       <c r="G178" s="12"/>
     </row>
-    <row r="179" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A179"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -5266,7 +6037,7 @@
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
     </row>
-    <row r="180" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
@@ -5275,7 +6046,7 @@
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
     </row>
-    <row r="181" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A181"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -5284,7 +6055,7 @@
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
     </row>
-    <row r="182" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
@@ -5293,7 +6064,7 @@
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
     </row>
-    <row r="183" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A183"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
@@ -5302,7 +6073,7 @@
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
     </row>
-    <row r="184" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -5311,7 +6082,7 @@
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
     </row>
-    <row r="185" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A185"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -5320,7 +6091,7 @@
       <c r="F185" s="12"/>
       <c r="G185" s="12"/>
     </row>
-    <row r="186" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
@@ -5329,7 +6100,7 @@
       <c r="F186" s="12"/>
       <c r="G186" s="12"/>
     </row>
-    <row r="187" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A187"/>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
@@ -5338,7 +6109,7 @@
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
     </row>
-    <row r="188" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
@@ -5347,7 +6118,7 @@
       <c r="F188" s="12"/>
       <c r="G188" s="12"/>
     </row>
-    <row r="189" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A189"/>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -5356,7 +6127,7 @@
       <c r="F189" s="12"/>
       <c r="G189" s="12"/>
     </row>
-    <row r="190" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
@@ -5365,7 +6136,7 @@
       <c r="F190" s="12"/>
       <c r="G190" s="12"/>
     </row>
-    <row r="191" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A191"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -5374,7 +6145,7 @@
       <c r="F191" s="12"/>
       <c r="G191" s="12"/>
     </row>
-    <row r="192" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -5383,7 +6154,7 @@
       <c r="F192" s="12"/>
       <c r="G192" s="12"/>
     </row>
-    <row r="193" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A193"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -5392,7 +6163,7 @@
       <c r="F193" s="12"/>
       <c r="G193" s="12"/>
     </row>
-    <row r="194" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -5401,7 +6172,7 @@
       <c r="F194" s="12"/>
       <c r="G194" s="12"/>
     </row>
-    <row r="195" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A195"/>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
@@ -5410,7 +6181,7 @@
       <c r="F195" s="12"/>
       <c r="G195" s="12"/>
     </row>
-    <row r="196" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
@@ -5419,7 +6190,7 @@
       <c r="F196" s="12"/>
       <c r="G196" s="12"/>
     </row>
-    <row r="197" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A197"/>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
@@ -5428,7 +6199,7 @@
       <c r="F197" s="12"/>
       <c r="G197" s="12"/>
     </row>
-    <row r="198" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
@@ -5437,7 +6208,7 @@
       <c r="F198" s="12"/>
       <c r="G198" s="12"/>
     </row>
-    <row r="199" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A199"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -5446,7 +6217,7 @@
       <c r="F199" s="12"/>
       <c r="G199" s="12"/>
     </row>
-    <row r="200" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -5455,7 +6226,7 @@
       <c r="F200" s="12"/>
       <c r="G200" s="12"/>
     </row>
-    <row r="201" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A201"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -5464,7 +6235,7 @@
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
     </row>
-    <row r="202" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -5473,7 +6244,7 @@
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
     </row>
-    <row r="203" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A203"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -5482,7 +6253,7 @@
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
     </row>
-    <row r="204" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
@@ -5491,7 +6262,7 @@
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
     </row>
-    <row r="205" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A205"/>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -5500,7 +6271,7 @@
       <c r="F205" s="12"/>
       <c r="G205" s="12"/>
     </row>
-    <row r="206" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
@@ -5509,7 +6280,7 @@
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
     </row>
-    <row r="207" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A207"/>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
@@ -5518,7 +6289,7 @@
       <c r="F207" s="12"/>
       <c r="G207" s="12"/>
     </row>
-    <row r="208" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
@@ -5527,7 +6298,7 @@
       <c r="F208" s="12"/>
       <c r="G208" s="12"/>
     </row>
-    <row r="209" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A209"/>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
@@ -5536,7 +6307,7 @@
       <c r="F209" s="12"/>
       <c r="G209" s="12"/>
     </row>
-    <row r="210" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
@@ -5545,7 +6316,7 @@
       <c r="F210" s="12"/>
       <c r="G210" s="12"/>
     </row>
-    <row r="211" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A211"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
@@ -5554,27 +6325,1748 @@
       <c r="F211" s="12"/>
       <c r="G211" s="12"/>
     </row>
-    <row r="212" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A212"/>
-      <c r="B212" s="12"/>
-      <c r="C212" s="12"/>
-      <c r="D212" s="12"/>
-      <c r="E212" s="12"/>
-      <c r="F212" s="12"/>
-      <c r="G212" s="12"/>
-    </row>
-    <row r="213" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A213"/>
-      <c r="B213" s="12"/>
-      <c r="C213" s="12"/>
-      <c r="D213" s="12"/>
-      <c r="E213" s="12"/>
-      <c r="F213" s="12"/>
-      <c r="G213" s="12"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CF705B-4607-5D4D-A976-FE46DEC8FD82}">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14">
+        <v>5</v>
+      </c>
+      <c r="E2" s="14">
+        <v>5</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14">
+        <v>5</v>
+      </c>
+      <c r="H2" s="35">
+        <v>4</v>
+      </c>
+      <c r="I2" s="35">
+        <v>3</v>
+      </c>
+      <c r="J2" s="35">
+        <v>2</v>
+      </c>
+      <c r="K2" s="35">
+        <v>4</v>
+      </c>
+      <c r="L2" s="35">
+        <v>2</v>
+      </c>
+      <c r="M2" s="35">
+        <v>3</v>
+      </c>
+      <c r="N2" s="35">
+        <v>3</v>
+      </c>
+      <c r="O2" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="14">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>3</v>
+      </c>
+      <c r="D3" s="14">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14">
+        <v>5</v>
+      </c>
+      <c r="F3" s="14">
+        <v>3</v>
+      </c>
+      <c r="G3" s="14">
+        <v>5</v>
+      </c>
+      <c r="H3" s="35">
+        <v>5</v>
+      </c>
+      <c r="I3" s="35">
+        <v>5</v>
+      </c>
+      <c r="J3" s="35">
+        <v>3</v>
+      </c>
+      <c r="K3" s="35">
+        <v>4</v>
+      </c>
+      <c r="L3" s="35">
+        <v>4</v>
+      </c>
+      <c r="M3" s="35">
+        <v>5</v>
+      </c>
+      <c r="N3" s="35">
+        <v>4</v>
+      </c>
+      <c r="O3" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="14">
+        <v>5</v>
+      </c>
+      <c r="C4" s="14">
+        <v>4</v>
+      </c>
+      <c r="D4" s="14">
+        <v>3</v>
+      </c>
+      <c r="E4" s="14">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14">
+        <v>4</v>
+      </c>
+      <c r="G4" s="14">
+        <v>3</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35">
+        <v>5</v>
+      </c>
+      <c r="J4" s="35">
+        <v>3</v>
+      </c>
+      <c r="K4" s="35">
+        <v>3</v>
+      </c>
+      <c r="L4" s="35">
+        <v>5</v>
+      </c>
+      <c r="M4" s="35">
+        <v>5</v>
+      </c>
+      <c r="N4" s="35">
+        <v>4</v>
+      </c>
+      <c r="O4" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="14">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14">
+        <v>4</v>
+      </c>
+      <c r="D5" s="14">
+        <v>5</v>
+      </c>
+      <c r="E5" s="14">
+        <v>5</v>
+      </c>
+      <c r="F5" s="14">
+        <v>4</v>
+      </c>
+      <c r="G5" s="14">
+        <v>5</v>
+      </c>
+      <c r="H5" s="35">
+        <v>4</v>
+      </c>
+      <c r="I5" s="35">
+        <v>0</v>
+      </c>
+      <c r="J5" s="35">
+        <v>4</v>
+      </c>
+      <c r="K5" s="35">
+        <v>2</v>
+      </c>
+      <c r="L5" s="35">
+        <v>3</v>
+      </c>
+      <c r="M5" s="35">
+        <v>4</v>
+      </c>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="14">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14">
+        <v>4</v>
+      </c>
+      <c r="D6" s="14">
+        <v>5</v>
+      </c>
+      <c r="E6" s="14">
+        <v>5</v>
+      </c>
+      <c r="F6" s="14">
+        <v>4</v>
+      </c>
+      <c r="G6" s="14">
+        <v>4</v>
+      </c>
+      <c r="H6" s="35">
+        <v>4</v>
+      </c>
+      <c r="I6" s="35">
+        <v>5</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35">
+        <v>2</v>
+      </c>
+      <c r="L6" s="35">
+        <v>4</v>
+      </c>
+      <c r="M6" s="35">
+        <v>5</v>
+      </c>
+      <c r="N6" s="35">
+        <v>4</v>
+      </c>
+      <c r="O6" s="35">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D986DF18-4E98-B04D-8530-9FAE3950091E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q202"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="14" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="14" customWidth="1"/>
+    <col min="7" max="15" width="16.33203125" style="14" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14">
+        <v>5</v>
+      </c>
+      <c r="E2" s="14">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14">
+        <v>5</v>
+      </c>
+      <c r="H2" s="35">
+        <v>4</v>
+      </c>
+      <c r="I2" s="35">
+        <v>3</v>
+      </c>
+      <c r="J2" s="35">
+        <v>2</v>
+      </c>
+      <c r="K2" s="35">
+        <v>4</v>
+      </c>
+      <c r="L2" s="35">
+        <v>2</v>
+      </c>
+      <c r="M2" s="35">
+        <v>3</v>
+      </c>
+      <c r="N2" s="35">
+        <v>3</v>
+      </c>
+      <c r="O2" s="35">
+        <v>1</v>
+      </c>
+      <c r="P2" s="8">
+        <f>SUM(B2:O2)/COUNTIF(B2:O2,"&gt;0")</f>
+        <v>3.0769230769230771</v>
+      </c>
+      <c r="Q2" s="8">
+        <f>P2-$P$7</f>
+        <v>-0.79999999999999982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="14">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>3</v>
+      </c>
+      <c r="D3" s="14">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14">
+        <v>5</v>
+      </c>
+      <c r="F3" s="14">
+        <v>3</v>
+      </c>
+      <c r="G3" s="14">
+        <v>5</v>
+      </c>
+      <c r="H3" s="35">
+        <v>5</v>
+      </c>
+      <c r="I3" s="35">
+        <v>5</v>
+      </c>
+      <c r="J3" s="35">
+        <v>3</v>
+      </c>
+      <c r="K3" s="35">
+        <v>4</v>
+      </c>
+      <c r="L3" s="35">
+        <v>4</v>
+      </c>
+      <c r="M3" s="35">
+        <v>5</v>
+      </c>
+      <c r="N3" s="35">
+        <v>4</v>
+      </c>
+      <c r="O3" s="35">
+        <v>3</v>
+      </c>
+      <c r="P3" s="8">
+        <f t="shared" ref="P3:P6" si="0">SUM(B3:O3)/COUNTIF(B3:O3,"&gt;0")</f>
+        <v>4.1428571428571432</v>
+      </c>
+      <c r="Q3" s="8">
+        <f>P3-$P$7</f>
+        <v>0.26593406593406632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="14">
+        <v>5</v>
+      </c>
+      <c r="C4" s="14">
+        <v>4</v>
+      </c>
+      <c r="D4" s="14">
+        <v>3</v>
+      </c>
+      <c r="E4" s="14">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14">
+        <v>4</v>
+      </c>
+      <c r="G4" s="14">
+        <v>3</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35">
+        <v>5</v>
+      </c>
+      <c r="J4" s="35">
+        <v>3</v>
+      </c>
+      <c r="K4" s="35">
+        <v>3</v>
+      </c>
+      <c r="L4" s="35">
+        <v>5</v>
+      </c>
+      <c r="M4" s="35">
+        <v>5</v>
+      </c>
+      <c r="N4" s="35">
+        <v>4</v>
+      </c>
+      <c r="O4" s="35">
+        <v>3</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" si="0"/>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="Q4" s="39">
+        <f>P4-$P$7</f>
+        <v>-3.076923076923066E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="14">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14">
+        <v>4</v>
+      </c>
+      <c r="D5" s="14">
+        <v>5</v>
+      </c>
+      <c r="E5" s="14">
+        <v>5</v>
+      </c>
+      <c r="F5" s="14">
+        <v>4</v>
+      </c>
+      <c r="G5" s="14">
+        <v>5</v>
+      </c>
+      <c r="H5" s="35">
+        <v>4</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35">
+        <v>4</v>
+      </c>
+      <c r="K5" s="35">
+        <v>2</v>
+      </c>
+      <c r="L5" s="35">
+        <v>3</v>
+      </c>
+      <c r="M5" s="35">
+        <v>4</v>
+      </c>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35">
+        <v>4</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q5" s="8">
+        <f>P5-$P$7</f>
+        <v>0.12307692307692308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="14">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14">
+        <v>4</v>
+      </c>
+      <c r="D6" s="14">
+        <v>5</v>
+      </c>
+      <c r="E6" s="14">
+        <v>5</v>
+      </c>
+      <c r="F6" s="14">
+        <v>4</v>
+      </c>
+      <c r="G6" s="14">
+        <v>4</v>
+      </c>
+      <c r="H6" s="35">
+        <v>4</v>
+      </c>
+      <c r="I6" s="35">
+        <v>5</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35">
+        <v>2</v>
+      </c>
+      <c r="L6" s="35">
+        <v>4</v>
+      </c>
+      <c r="M6" s="35">
+        <v>5</v>
+      </c>
+      <c r="N6" s="35">
+        <v>4</v>
+      </c>
+      <c r="O6" s="35">
+        <v>5</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="0"/>
+        <v>4.3076923076923075</v>
+      </c>
+      <c r="Q6" s="8">
+        <f>P6-$P$7</f>
+        <v>0.43076923076923057</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="17">
+        <f>SUM(B2:B6)/COUNTIF(B2:B6,"&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="34">
+        <f>SUM(C2:C6)/COUNTIF(C2:C6,"&gt;0")</f>
+        <v>3.4</v>
+      </c>
+      <c r="D7" s="34">
+        <f>SUM(D2:D6)/COUNTIF(D2:D6,"&gt;0")</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E7" s="34">
+        <f>SUM(E2:E6)/COUNTIF(E2:E6,"&gt;0")</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F7" s="34">
+        <f>SUM(F2:F6)/COUNTIF(F2:F6,"&gt;0")</f>
+        <v>3.75</v>
+      </c>
+      <c r="G7" s="34">
+        <f>SUM(G2:G6)/COUNTIF(G2:G6,"&gt;0")</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H7" s="34">
+        <f t="shared" ref="H7:O7" si="1">SUM(H2:H6)/COUNTIF(H2:H6,"&gt;0")</f>
+        <v>4.25</v>
+      </c>
+      <c r="I7" s="34">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="J7" s="34">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K7" s="34">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L7" s="34">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
+      </c>
+      <c r="M7" s="34">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N7" s="34">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+      <c r="O7" s="34">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="P7" s="10">
+        <f>SUM(Table1223[[TOPGUN:MAVERICK]:[A_QUIET_PLACE]])/COUNTIF(Table1223[[TOPGUN:MAVERICK]:[A_QUIET_PLACE]],"&gt;0")</f>
+        <v>3.8769230769230769</v>
+      </c>
+      <c r="Q7" s="8">
+        <f>P7-$P$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="9">
+        <f>B7-$P$7</f>
+        <v>0.12307692307692308</v>
+      </c>
+      <c r="C8" s="9">
+        <f>C7-$P$7</f>
+        <v>-0.47692307692307701</v>
+      </c>
+      <c r="D8" s="9">
+        <f>D7-$P$7</f>
+        <v>0.52307692307692344</v>
+      </c>
+      <c r="E8" s="9">
+        <f>E7-$P$7</f>
+        <v>0.72307692307692273</v>
+      </c>
+      <c r="F8" s="38">
+        <f>F7-$P$7</f>
+        <v>-0.12692307692307692</v>
+      </c>
+      <c r="G8" s="9">
+        <f>G7-$P$7</f>
+        <v>0.52307692307692344</v>
+      </c>
+      <c r="H8" s="37">
+        <f t="shared" ref="H8:O8" si="2">H7-$P$7</f>
+        <v>0.37307692307692308</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="2"/>
+        <v>0.62307692307692308</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="2"/>
+        <v>-0.87692307692307692</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="2"/>
+        <v>-0.87692307692307692</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="2"/>
+        <v>-0.27692307692307683</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="2"/>
+        <v>0.52307692307692344</v>
+      </c>
+      <c r="N8" s="9">
+        <f t="shared" si="2"/>
+        <v>-0.12692307692307692</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="2"/>
+        <v>-0.67692307692307674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12">
+        <f>SUM(Table1223[[TOPGUN:MAVERICK]:[A_QUIET_PLACE]])</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12">
+        <f>COUNTIF(Table1223[[TOPGUN:MAVERICK]:[A_QUIET_PLACE]],"&gt;0")</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <f>P7+J6</f>
+        <v>3.8769230769230769</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+    </row>
+    <row r="16" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="13">
+        <f>SUM(P7, H8, Q4)</f>
+        <v>4.2192307692307693</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22"/>
+      <c r="Q22"/>
+    </row>
+    <row r="23" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23"/>
+      <c r="Q23"/>
+    </row>
+    <row r="24" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24"/>
+      <c r="Q24"/>
+    </row>
+    <row r="25" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25"/>
+      <c r="Q25"/>
+    </row>
+    <row r="26" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26"/>
+      <c r="Q26"/>
+    </row>
+    <row r="27" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27"/>
+      <c r="Q27"/>
+    </row>
+    <row r="28" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28"/>
+      <c r="Q28"/>
+    </row>
+    <row r="29" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29"/>
+      <c r="Q29"/>
+    </row>
+    <row r="30" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30"/>
+      <c r="Q30"/>
+    </row>
+    <row r="31" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31"/>
+      <c r="Q31"/>
+    </row>
+    <row r="32" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32"/>
+      <c r="Q32"/>
+    </row>
+    <row r="33" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33"/>
+      <c r="Q33"/>
+    </row>
+    <row r="34" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34"/>
+      <c r="Q34"/>
+    </row>
+    <row r="35" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35"/>
+      <c r="Q35"/>
+    </row>
+    <row r="36" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36"/>
+      <c r="Q36"/>
+    </row>
+    <row r="37" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37"/>
+      <c r="Q37"/>
+    </row>
+    <row r="38" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38"/>
+      <c r="Q38"/>
+    </row>
+    <row r="39" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39"/>
+      <c r="Q39"/>
+    </row>
+    <row r="40" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40"/>
+      <c r="Q40"/>
+    </row>
+    <row r="41" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41"/>
+      <c r="Q41"/>
+    </row>
+    <row r="42" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42"/>
+      <c r="Q42"/>
+    </row>
+    <row r="43" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43"/>
+      <c r="Q43"/>
+    </row>
+    <row r="44" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44"/>
+      <c r="Q44"/>
+    </row>
+    <row r="45" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45"/>
+      <c r="Q45"/>
+    </row>
+    <row r="46" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46"/>
+      <c r="Q46"/>
+    </row>
+    <row r="47" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47"/>
+      <c r="Q47"/>
+    </row>
+    <row r="48" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48"/>
+      <c r="Q48"/>
+    </row>
+    <row r="49" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49"/>
+      <c r="Q49"/>
+    </row>
+    <row r="50" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50"/>
+      <c r="Q50"/>
+    </row>
+    <row r="51" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51"/>
+      <c r="Q51"/>
+    </row>
+    <row r="52" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52"/>
+      <c r="Q52"/>
+    </row>
+    <row r="53" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53"/>
+      <c r="Q53"/>
+    </row>
+    <row r="54" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54"/>
+      <c r="Q54"/>
+    </row>
+    <row r="55" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55"/>
+      <c r="Q55"/>
+    </row>
+    <row r="56" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56"/>
+      <c r="Q56"/>
+    </row>
+    <row r="57" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57"/>
+      <c r="Q57"/>
+    </row>
+    <row r="58" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58"/>
+      <c r="Q58"/>
+    </row>
+    <row r="59" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59"/>
+      <c r="Q59"/>
+    </row>
+    <row r="60" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60"/>
+      <c r="Q60"/>
+    </row>
+    <row r="61" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61"/>
+      <c r="Q61"/>
+    </row>
+    <row r="62" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62"/>
+      <c r="Q62"/>
+    </row>
+    <row r="63" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63"/>
+      <c r="Q63"/>
+    </row>
+    <row r="64" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64"/>
+      <c r="Q64"/>
+    </row>
+    <row r="65" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65"/>
+      <c r="Q65"/>
+    </row>
+    <row r="66" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66"/>
+      <c r="Q66"/>
+    </row>
+    <row r="67" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67"/>
+      <c r="Q67"/>
+    </row>
+    <row r="68" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68"/>
+      <c r="Q68"/>
+    </row>
+    <row r="69" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69"/>
+      <c r="Q69"/>
+    </row>
+    <row r="70" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70"/>
+      <c r="Q70"/>
+    </row>
+    <row r="71" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71"/>
+      <c r="Q71"/>
+    </row>
+    <row r="72" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72"/>
+      <c r="Q72"/>
+    </row>
+    <row r="73" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73"/>
+      <c r="Q73"/>
+    </row>
+    <row r="74" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74"/>
+      <c r="Q74"/>
+    </row>
+    <row r="75" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75"/>
+      <c r="Q75"/>
+    </row>
+    <row r="76" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76"/>
+      <c r="Q76"/>
+    </row>
+    <row r="77" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77"/>
+      <c r="Q77"/>
+    </row>
+    <row r="78" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78"/>
+      <c r="Q78"/>
+    </row>
+    <row r="79" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79"/>
+      <c r="Q79"/>
+    </row>
+    <row r="80" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80"/>
+      <c r="Q80"/>
+    </row>
+    <row r="81" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81"/>
+      <c r="Q81"/>
+    </row>
+    <row r="82" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82"/>
+      <c r="Q82"/>
+    </row>
+    <row r="83" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83"/>
+      <c r="Q83"/>
+    </row>
+    <row r="84" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84"/>
+      <c r="Q84"/>
+    </row>
+    <row r="85" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85"/>
+      <c r="Q85"/>
+    </row>
+    <row r="86" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86"/>
+      <c r="Q86"/>
+    </row>
+    <row r="87" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87"/>
+      <c r="Q87"/>
+    </row>
+    <row r="88" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88"/>
+      <c r="Q88"/>
+    </row>
+    <row r="89" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89"/>
+      <c r="Q89"/>
+    </row>
+    <row r="90" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90"/>
+      <c r="Q90"/>
+    </row>
+    <row r="91" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91"/>
+      <c r="Q91"/>
+    </row>
+    <row r="92" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92"/>
+      <c r="Q92"/>
+    </row>
+    <row r="93" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93"/>
+      <c r="Q93"/>
+    </row>
+    <row r="94" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94"/>
+      <c r="Q94"/>
+    </row>
+    <row r="95" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95"/>
+      <c r="Q95"/>
+    </row>
+    <row r="96" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96"/>
+      <c r="Q96"/>
+    </row>
+    <row r="97" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97"/>
+      <c r="Q97"/>
+    </row>
+    <row r="98" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98"/>
+      <c r="Q98"/>
+    </row>
+    <row r="99" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A99"/>
+      <c r="Q99"/>
+    </row>
+    <row r="100" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100"/>
+      <c r="Q100"/>
+    </row>
+    <row r="101" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101"/>
+      <c r="Q101"/>
+    </row>
+    <row r="102" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102"/>
+      <c r="Q102"/>
+    </row>
+    <row r="103" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A103"/>
+      <c r="Q103"/>
+    </row>
+    <row r="104" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104"/>
+      <c r="Q104"/>
+    </row>
+    <row r="105" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105"/>
+      <c r="Q105"/>
+    </row>
+    <row r="106" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A106"/>
+      <c r="Q106"/>
+    </row>
+    <row r="107" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A107"/>
+      <c r="Q107"/>
+    </row>
+    <row r="108" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A108"/>
+      <c r="Q108"/>
+    </row>
+    <row r="109" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A109"/>
+      <c r="Q109"/>
+    </row>
+    <row r="110" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A110"/>
+      <c r="Q110"/>
+    </row>
+    <row r="111" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111"/>
+      <c r="Q111"/>
+    </row>
+    <row r="112" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A112"/>
+      <c r="Q112"/>
+    </row>
+    <row r="113" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A113"/>
+      <c r="Q113"/>
+    </row>
+    <row r="114" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A114"/>
+      <c r="Q114"/>
+    </row>
+    <row r="115" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115"/>
+      <c r="Q115"/>
+    </row>
+    <row r="116" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A116"/>
+      <c r="Q116"/>
+    </row>
+    <row r="117" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A117"/>
+      <c r="Q117"/>
+    </row>
+    <row r="118" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A118"/>
+      <c r="Q118"/>
+    </row>
+    <row r="119" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A119"/>
+      <c r="Q119"/>
+    </row>
+    <row r="120" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A120"/>
+      <c r="Q120"/>
+    </row>
+    <row r="121" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A121"/>
+      <c r="Q121"/>
+    </row>
+    <row r="122" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A122"/>
+      <c r="Q122"/>
+    </row>
+    <row r="123" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A123"/>
+      <c r="Q123"/>
+    </row>
+    <row r="124" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A124"/>
+      <c r="Q124"/>
+    </row>
+    <row r="125" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A125"/>
+      <c r="Q125"/>
+    </row>
+    <row r="126" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A126"/>
+      <c r="Q126"/>
+    </row>
+    <row r="127" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A127"/>
+      <c r="Q127"/>
+    </row>
+    <row r="128" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A128"/>
+      <c r="Q128"/>
+    </row>
+    <row r="129" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A129"/>
+      <c r="Q129"/>
+    </row>
+    <row r="130" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A130"/>
+      <c r="Q130"/>
+    </row>
+    <row r="131" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A131"/>
+      <c r="Q131"/>
+    </row>
+    <row r="132" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A132"/>
+      <c r="Q132"/>
+    </row>
+    <row r="133" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A133"/>
+      <c r="Q133"/>
+    </row>
+    <row r="134" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A134"/>
+      <c r="Q134"/>
+    </row>
+    <row r="135" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A135"/>
+      <c r="Q135"/>
+    </row>
+    <row r="136" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A136"/>
+      <c r="Q136"/>
+    </row>
+    <row r="137" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A137"/>
+      <c r="Q137"/>
+    </row>
+    <row r="138" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A138"/>
+      <c r="Q138"/>
+    </row>
+    <row r="139" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A139"/>
+      <c r="Q139"/>
+    </row>
+    <row r="140" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A140"/>
+      <c r="Q140"/>
+    </row>
+    <row r="141" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A141"/>
+      <c r="Q141"/>
+    </row>
+    <row r="142" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A142"/>
+      <c r="Q142"/>
+    </row>
+    <row r="143" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A143"/>
+      <c r="Q143"/>
+    </row>
+    <row r="144" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A144"/>
+      <c r="Q144"/>
+    </row>
+    <row r="145" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A145"/>
+      <c r="Q145"/>
+    </row>
+    <row r="146" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A146"/>
+      <c r="Q146"/>
+    </row>
+    <row r="147" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A147"/>
+      <c r="Q147"/>
+    </row>
+    <row r="148" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A148"/>
+      <c r="Q148"/>
+    </row>
+    <row r="149" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A149"/>
+      <c r="Q149"/>
+    </row>
+    <row r="150" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A150"/>
+      <c r="Q150"/>
+    </row>
+    <row r="151" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A151"/>
+      <c r="Q151"/>
+    </row>
+    <row r="152" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A152"/>
+      <c r="Q152"/>
+    </row>
+    <row r="153" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A153"/>
+      <c r="Q153"/>
+    </row>
+    <row r="154" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A154"/>
+      <c r="Q154"/>
+    </row>
+    <row r="155" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A155"/>
+      <c r="Q155"/>
+    </row>
+    <row r="156" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A156"/>
+      <c r="Q156"/>
+    </row>
+    <row r="157" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A157"/>
+      <c r="Q157"/>
+    </row>
+    <row r="158" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A158"/>
+      <c r="Q158"/>
+    </row>
+    <row r="159" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A159"/>
+      <c r="Q159"/>
+    </row>
+    <row r="160" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A160"/>
+      <c r="Q160"/>
+    </row>
+    <row r="161" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A161"/>
+      <c r="Q161"/>
+    </row>
+    <row r="162" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A162"/>
+      <c r="Q162"/>
+    </row>
+    <row r="163" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A163"/>
+      <c r="Q163"/>
+    </row>
+    <row r="164" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A164"/>
+      <c r="Q164"/>
+    </row>
+    <row r="165" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A165"/>
+      <c r="Q165"/>
+    </row>
+    <row r="166" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A166"/>
+      <c r="Q166"/>
+    </row>
+    <row r="167" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A167"/>
+      <c r="Q167"/>
+    </row>
+    <row r="168" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A168"/>
+      <c r="Q168"/>
+    </row>
+    <row r="169" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A169"/>
+      <c r="Q169"/>
+    </row>
+    <row r="170" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A170"/>
+      <c r="Q170"/>
+    </row>
+    <row r="171" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A171"/>
+      <c r="Q171"/>
+    </row>
+    <row r="172" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A172"/>
+      <c r="Q172"/>
+    </row>
+    <row r="173" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A173"/>
+      <c r="Q173"/>
+    </row>
+    <row r="174" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A174"/>
+      <c r="Q174"/>
+    </row>
+    <row r="175" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A175"/>
+      <c r="Q175"/>
+    </row>
+    <row r="176" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A176"/>
+      <c r="Q176"/>
+    </row>
+    <row r="177" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A177"/>
+      <c r="Q177"/>
+    </row>
+    <row r="178" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A178"/>
+      <c r="Q178"/>
+    </row>
+    <row r="179" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A179"/>
+      <c r="Q179"/>
+    </row>
+    <row r="180" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A180"/>
+      <c r="Q180"/>
+    </row>
+    <row r="181" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A181"/>
+      <c r="Q181"/>
+    </row>
+    <row r="182" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A182"/>
+      <c r="Q182"/>
+    </row>
+    <row r="183" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A183"/>
+      <c r="Q183"/>
+    </row>
+    <row r="184" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A184"/>
+      <c r="Q184"/>
+    </row>
+    <row r="185" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A185"/>
+      <c r="Q185"/>
+    </row>
+    <row r="186" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A186"/>
+      <c r="Q186"/>
+    </row>
+    <row r="187" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A187"/>
+      <c r="Q187"/>
+    </row>
+    <row r="188" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A188"/>
+      <c r="Q188"/>
+    </row>
+    <row r="189" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A189"/>
+      <c r="Q189"/>
+    </row>
+    <row r="190" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A190"/>
+      <c r="Q190"/>
+    </row>
+    <row r="191" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A191"/>
+      <c r="Q191"/>
+    </row>
+    <row r="192" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A192"/>
+      <c r="Q192"/>
+    </row>
+    <row r="193" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A193"/>
+      <c r="Q193"/>
+    </row>
+    <row r="194" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A194"/>
+      <c r="Q194"/>
+    </row>
+    <row r="195" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A195"/>
+      <c r="Q195"/>
+    </row>
+    <row r="196" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A196"/>
+      <c r="Q196"/>
+    </row>
+    <row r="197" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A197"/>
+      <c r="Q197"/>
+    </row>
+    <row r="198" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A198"/>
+      <c r="Q198"/>
+    </row>
+    <row r="199" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A199"/>
+      <c r="Q199"/>
+    </row>
+    <row r="200" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A200"/>
+      <c r="Q200"/>
+    </row>
+    <row r="201" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A201"/>
+      <c r="Q201"/>
+    </row>
+    <row r="202" spans="1:17" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A202"/>
+      <c r="Q202"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
